--- a/public/Pelanggan/datadil(9).xlsx
+++ b/public/Pelanggan/datadil(9).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riank\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC92FD7B-22F0-4A4B-BCCC-7F2205638B4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B0D12E-86F6-4FB5-A42C-BEBB27BEF7AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19080" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="41">
   <si>
     <t xml:space="preserve">Rian </t>
   </si>
@@ -490,21 +490,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB15"/>
+  <dimension ref="A1:AB14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="16" max="16" width="16.5703125" customWidth="1"/>
     <col min="17" max="17" width="20.85546875" customWidth="1"/>
+    <col min="26" max="26" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>11223344</v>
+        <v>31526433</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -590,7 +591,7 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>11223346</v>
+        <v>11223334</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -676,7 +677,7 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>11223347</v>
+        <v>11223335</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -762,7 +763,7 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>11223348</v>
+        <v>11223336</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -848,7 +849,7 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>11223349</v>
+        <v>11223337</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -934,7 +935,7 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>11223350</v>
+        <v>11223338</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1020,7 +1021,7 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>11223351</v>
+        <v>11223339</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1106,7 +1107,7 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>11223352</v>
+        <v>11223340</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1192,7 +1193,7 @@
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>11223353</v>
+        <v>11223341</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1278,7 +1279,7 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>11223354</v>
+        <v>11223342</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1364,7 +1365,7 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>11223355</v>
+        <v>11223343</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1450,7 +1451,7 @@
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11223356</v>
+        <v>11223344</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1536,7 +1537,7 @@
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>11526435</v>
+        <v>11223345</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1622,7 +1623,7 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>12256213</v>
+        <v>11223346</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1703,92 +1704,6 @@
         <v>9</v>
       </c>
       <c r="AB14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>31526432</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>23154</v>
-      </c>
-      <c r="E15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15">
-        <v>5</v>
-      </c>
-      <c r="H15">
-        <v>4</v>
-      </c>
-      <c r="I15">
-        <v>4</v>
-      </c>
-      <c r="J15" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" t="s">
-        <v>33</v>
-      </c>
-      <c r="M15" t="s">
-        <v>4</v>
-      </c>
-      <c r="N15">
-        <v>4</v>
-      </c>
-      <c r="O15">
-        <v>4</v>
-      </c>
-      <c r="P15" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>5</v>
-      </c>
-      <c r="R15" t="s">
-        <v>6</v>
-      </c>
-      <c r="S15" t="s">
-        <v>6</v>
-      </c>
-      <c r="T15" t="s">
-        <v>6</v>
-      </c>
-      <c r="U15" t="s">
-        <v>6</v>
-      </c>
-      <c r="V15" t="s">
-        <v>6</v>
-      </c>
-      <c r="W15" t="s">
-        <v>6</v>
-      </c>
-      <c r="X15" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB15">
         <v>1</v>
       </c>
     </row>
